--- a/test.xlsx
+++ b/test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcordes/Projects/VectorDB_Repository/VectorDB-Searcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12285948-8C44-B047-8E1F-EB94A1F19890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AE41C8-92EA-0B4A-B21E-E4BD419B74B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Describe how your company handles data at rest.</t>
   </si>
@@ -33,11 +33,17 @@
   <si>
     <t xml:space="preserve"> For Live and Work Well does key management takes into account the data classification and regulatory sensitivity of the data being stored in the Cloud / Multi‚Äêtenant environment?</t>
   </si>
+  <si>
+    <t>Will information concerning minors (below the age of 18) be processed?</t>
+  </si>
+  <si>
+    <t>What types of data are collected and what is the applicable age range of the minors?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -468,6 +474,15 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEB887"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -515,8 +530,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -871,32 +892,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" activeCellId="1" sqref="B10 D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="7" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
